--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="228" yWindow="576" windowWidth="13116" windowHeight="3396"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabelle1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Tabelle2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Tabelle3" sheetId="3" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Math- Solver</t>
   </si>
@@ -205,31 +208,102 @@
   </si>
   <si>
     <t>86*73*11*58*21*19</t>
+  </si>
+  <si>
+    <t>(13+11)/2</t>
+  </si>
+  <si>
+    <t>(14*3)-1</t>
+  </si>
+  <si>
+    <t>((7+4)*30)/4</t>
+  </si>
+  <si>
+    <t>500-40</t>
+  </si>
+  <si>
+    <t>1337-27</t>
+  </si>
+  <si>
+    <t>(42+34)*9</t>
+  </si>
+  <si>
+    <t>(47*11)/(4-2)</t>
+  </si>
+  <si>
+    <t>(0-9)/(-7)</t>
+  </si>
+  <si>
+    <t>((679+1)/2)*4</t>
+  </si>
+  <si>
+    <t>(49+7-4)*5</t>
+  </si>
+  <si>
+    <t>717+471/-7</t>
+  </si>
+  <si>
+    <t>874+37*111</t>
+  </si>
+  <si>
+    <t>(69+69)*71</t>
+  </si>
+  <si>
+    <t>666-111*3</t>
+  </si>
+  <si>
+    <t>(1995-21)*3</t>
+  </si>
+  <si>
+    <t>(50/5)*(5-4)</t>
+  </si>
+  <si>
+    <t>(612-4+7)/2</t>
+  </si>
+  <si>
+    <t>46-0+8</t>
+  </si>
+  <si>
+    <t>8+8</t>
+  </si>
+  <si>
+    <t>7-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,79 +311,379 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="21.25"/>
-    <col customWidth="1" min="3" max="26" width="9.38"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -320,45 +694,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>282.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>2054.66667</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>2054.6666700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -367,86 +741,86 @@
         <v>5040.04</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>67497.1316</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>67497.131599999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>1426.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>2014.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>4814.14957</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>4814.1495699999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>1445.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -455,53 +829,53 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>3232.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3">
-        <v>959.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -510,384 +884,504 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
-        <v>7.42857143</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>7.4285714299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>256.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>419.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>-267.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>255.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>864.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>1443.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="9">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A46" s="9">
+        <v>43</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="9">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A48" s="9">
+        <v>45</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="9">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A49" s="9">
+        <v>46</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="9">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A50" s="9">
+        <v>47</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1.2857000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A51" s="9">
+        <v>48</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A52" s="9">
+        <v>49</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A53" s="9">
+        <v>50</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="9">
+        <v>649.71400000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A54" s="9">
+        <v>51</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="9">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A55" s="9">
+        <v>52</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="9">
+        <v>9798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A56" s="9">
+        <v>53</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A57" s="9">
+        <v>54</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A58" s="9">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A59" s="9">
+        <v>56</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="9">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A60" s="9">
+        <v>57</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A61" s="9">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A62" s="9">
+        <v>59</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="3">
-        <v>-927.4285714</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>-927.42857140000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="3">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>47</v>
@@ -896,20 +1390,20 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="3">
-        <v>81.85714286</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>81.857142859999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>49</v>
@@ -918,20 +1412,20 @@
         <v>702.92</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C68" s="3">
-        <v>-631.2676056</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>-631.26760560000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>51</v>
@@ -940,20 +1434,20 @@
         <v>121.5</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="3">
-        <v>0.714285714</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>0.71428571399999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>53</v>
@@ -962,237 +1456,237 @@
         <v>20.125</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="3">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C73" s="3">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C74" s="3">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="3">
-        <v>9000.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C76" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B77" s="7">
-        <v>42742.0</v>
+        <v>42742</v>
       </c>
       <c r="C77" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C78" s="3">
-        <v>4.333333333</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
+        <v>4.3333333329999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C80" s="3">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="3">
-        <v>258.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C82" s="8">
-        <v>1.59814E14</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
+        <v>159814000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="14.25" customHeight="1">
       <c r="A97">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.25" customHeight="1">
       <c r="A98">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="14.25" customHeight="1">
       <c r="A99">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="14.25" customHeight="1">
       <c r="A100">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="14.25" customHeight="1">
       <c r="A101">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="14.25" customHeight="1">
       <c r="A102">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -2083,20 +2577,22 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="9.38"/>
+    <col min="1" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3100,18 +3596,19 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="9.38"/>
+    <col min="1" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -4115,6 +4612,6 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="228" yWindow="576" windowWidth="13116" windowHeight="3396"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Math- Solver</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1+2*7</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=0B7XBUhBQsJkxUU50eWRKMVZIQWs</t>
-  </si>
-  <si>
     <t>100*3-(4+2)*3</t>
   </si>
   <si>
@@ -268,12 +265,27 @@
   </si>
   <si>
     <t>7-7</t>
+  </si>
+  <si>
+    <t>Otsu</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>Character Recognition</t>
+  </si>
+  <si>
+    <t>Digit Recognition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -341,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -364,6 +376,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -379,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -453,7 +466,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -488,7 +500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -664,26 +675,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="26" width="9.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -693,8 +709,23 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+      <c r="D2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -704,148 +735,146 @@
       <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>2054.6666700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>5040.04</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>67497.131599999993</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>1426</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>4814.1495699999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>1445</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>49</v>
@@ -856,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>3232</v>
@@ -867,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>959</v>
@@ -878,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="e">
         <v>#DIV/0!</v>
@@ -889,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>44</v>
@@ -900,7 +929,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3">
         <v>7.4285714299999999</v>
@@ -911,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
@@ -922,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
@@ -933,7 +962,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>18</v>
@@ -944,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>28</v>
@@ -955,7 +984,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>139</v>
@@ -966,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -977,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <v>256</v>
@@ -988,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
         <v>24</v>
@@ -999,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
@@ -1010,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
         <v>180</v>
@@ -1021,7 +1050,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
         <v>419</v>
@@ -1032,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
         <v>42</v>
@@ -1043,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2">
         <v>31</v>
@@ -1054,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2">
         <v>215</v>
@@ -1065,7 +1094,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2">
         <v>100</v>
@@ -1076,7 +1105,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
         <v>-267</v>
@@ -1087,7 +1116,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <v>255</v>
@@ -1098,7 +1127,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>864</v>
@@ -1109,7 +1138,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>65</v>
@@ -1120,7 +1149,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
         <v>1443</v>
@@ -1131,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <v>41</v>
@@ -1142,7 +1171,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="9">
         <v>12</v>
@@ -1153,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="9">
         <v>41</v>
@@ -1164,7 +1193,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="9">
         <v>82.5</v>
@@ -1175,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="9">
         <v>460</v>
@@ -1186,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="9">
         <v>1300</v>
@@ -1197,7 +1226,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="9">
         <v>684</v>
@@ -1208,7 +1237,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="9">
         <v>258.5</v>
@@ -1219,7 +1248,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="9">
         <v>1.2857000000000001</v>
@@ -1230,7 +1259,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="9">
         <v>1360</v>
@@ -1241,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="9">
         <v>260</v>
@@ -1252,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="9">
         <v>649.71400000000006</v>
@@ -1263,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="9">
         <v>4981</v>
@@ -1274,7 +1303,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="9">
         <v>9798</v>
@@ -1285,7 +1314,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="9">
         <v>333</v>
@@ -1296,7 +1325,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="9">
         <v>5922</v>
@@ -1307,7 +1336,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="9">
         <v>10</v>
@@ -1318,7 +1347,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="9">
         <v>307.5</v>
@@ -1329,7 +1358,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="9">
         <v>54</v>
@@ -1340,7 +1369,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="9">
         <v>16</v>
@@ -1351,7 +1380,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -1362,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="3">
         <v>-927.42857140000001</v>
@@ -1373,7 +1402,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="3">
         <v>123</v>
@@ -1384,7 +1413,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="3">
         <v>36.5</v>
@@ -1395,7 +1424,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3">
         <v>81.857142859999996</v>
@@ -1406,7 +1435,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3">
         <v>702.92</v>
@@ -1417,7 +1446,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3">
         <v>-631.26760560000002</v>
@@ -1428,7 +1457,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="3">
         <v>121.5</v>
@@ -1439,7 +1468,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="3">
         <v>0.71428571399999996</v>
@@ -1450,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="3">
         <v>20.125</v>
@@ -1461,7 +1490,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="3">
         <v>132</v>
@@ -1472,7 +1501,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="3">
         <v>990</v>
@@ -1483,7 +1512,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="3">
         <v>28</v>
@@ -1494,7 +1523,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="3">
         <v>9000</v>
@@ -1505,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1527,7 +1556,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="3">
         <v>4.3333333329999997</v>
@@ -1538,7 +1567,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -1549,7 +1578,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C80" s="3">
         <v>48</v>
@@ -1560,7 +1589,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="3">
         <v>258</v>
@@ -1571,7 +1600,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="8">
         <v>159814000000000</v>
@@ -2576,16 +2605,13 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3601,7 +3627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>Math- Solver</t>
   </si>
@@ -276,10 +276,103 @@
     <t>CCL</t>
   </si>
   <si>
-    <t>Character Recognition</t>
-  </si>
-  <si>
     <t>Digit Recognition</t>
+  </si>
+  <si>
+    <t>Symbol Recognition</t>
+  </si>
+  <si>
+    <t>Legende:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>x/y</t>
+  </si>
+  <si>
+    <t>Diese Methode hat wie gewünscht funktioniert</t>
+  </si>
+  <si>
+    <t>Diese Methode hat nicht funktioniert</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Diese Methode konnte nicht getestet werden (bspw. wegen nicht funktionierender vorheriger Methode)</t>
+  </si>
+  <si>
+    <t>x von y Zahlen/Symbolen wurden richtig erkannt</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>5/6</t>
   </si>
 </sst>
 </file>
@@ -353,14 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +469,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -676,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -687,19 +791,20 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="26" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="27" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -713,19 +818,22 @@
         <v>83</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I2" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -735,9 +843,17 @@
       <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -747,8 +863,20 @@
       <c r="C4" s="3">
         <v>282</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
@@ -758,8 +886,20 @@
       <c r="C5" s="3">
         <v>2054.6666700000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
@@ -769,8 +909,20 @@
       <c r="C6" s="3">
         <v>5040.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="K6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
@@ -780,8 +932,20 @@
       <c r="C7" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8">
         <v>5</v>
       </c>
@@ -791,8 +955,14 @@
       <c r="C8" s="3">
         <v>67497.131599999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9">
         <v>6</v>
       </c>
@@ -802,8 +972,14 @@
       <c r="C9" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10">
         <v>7</v>
       </c>
@@ -813,8 +989,14 @@
       <c r="C10" s="3">
         <v>1426</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
       <c r="A11">
         <v>8</v>
       </c>
@@ -824,8 +1006,14 @@
       <c r="C11" s="3">
         <v>2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12">
         <v>9</v>
       </c>
@@ -835,8 +1023,14 @@
       <c r="C12" s="3">
         <v>4814.1495699999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13">
         <v>10</v>
       </c>
@@ -846,19 +1040,31 @@
       <c r="C13" s="3">
         <v>1445</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="e">
+      <c r="C14" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15">
         <v>12</v>
       </c>
@@ -868,8 +1074,14 @@
       <c r="C15" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
@@ -879,8 +1091,14 @@
       <c r="C16" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17">
         <v>14</v>
       </c>
@@ -890,8 +1108,14 @@
       <c r="C17" s="3">
         <v>3232</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18">
         <v>15</v>
       </c>
@@ -901,19 +1125,31 @@
       <c r="C18" s="3">
         <v>959</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="e">
+      <c r="C19" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20">
         <v>17</v>
       </c>
@@ -923,8 +1159,14 @@
       <c r="C20" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="A21">
         <v>18</v>
       </c>
@@ -934,8 +1176,14 @@
       <c r="C21" s="3">
         <v>7.4285714299999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22">
         <v>19</v>
       </c>
@@ -945,8 +1193,14 @@
       <c r="C22" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="A23">
         <v>20</v>
       </c>
@@ -956,8 +1210,26 @@
       <c r="C23" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="A24">
         <v>21</v>
       </c>
@@ -967,8 +1239,26 @@
       <c r="C24" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="A25">
         <v>22</v>
       </c>
@@ -978,8 +1268,26 @@
       <c r="C25" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26">
         <v>23</v>
       </c>
@@ -989,8 +1297,26 @@
       <c r="C26" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1000,8 +1326,26 @@
       <c r="C27" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1011,8 +1355,26 @@
       <c r="C28" s="2">
         <v>256</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1022,8 +1384,26 @@
       <c r="C29" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1033,8 +1413,26 @@
       <c r="C30" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1044,8 +1442,26 @@
       <c r="C31" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1055,8 +1471,26 @@
       <c r="C32" s="2">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1066,8 +1500,26 @@
       <c r="C33" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1077,8 +1529,26 @@
       <c r="C34" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1088,8 +1558,26 @@
       <c r="C35" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1099,8 +1587,26 @@
       <c r="C36" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1110,8 +1616,26 @@
       <c r="C37" s="2">
         <v>-267</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1121,8 +1645,26 @@
       <c r="C38" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1132,8 +1674,26 @@
       <c r="C39" s="2">
         <v>864</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1143,8 +1703,26 @@
       <c r="C40" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1154,8 +1732,26 @@
       <c r="C41" s="2">
         <v>1443</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
+      <c r="D41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1165,557 +1761,935 @@
       <c r="C42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="9">
+      <c r="D42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="9">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A44" s="8">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="9">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="9">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A46" s="8">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>460</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="9">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>1300</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="9">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A48" s="8">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>684</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="9">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A49" s="8">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>258.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="9">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A50" s="8">
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>1.2857000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="9">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A51" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>1360</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="9">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A52" s="8">
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>260</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="9">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A53" s="8">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>649.71400000000006</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A54" s="9">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A54" s="8">
         <v>51</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>4981</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A55" s="9">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A55" s="8">
         <v>52</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>9798</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A56" s="9">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A56" s="8">
         <v>53</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>333</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="9">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A57" s="8">
         <v>54</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>5922</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A58" s="9">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A58" s="8">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A59" s="9">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A59" s="8">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>307.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="9">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A60" s="8">
         <v>57</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A61" s="9">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A61" s="8">
         <v>58</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A62" s="9">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A62" s="8">
         <v>59</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.25" customHeight="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="3">
         <v>-927.42857140000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" customHeight="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="3">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" customHeight="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="3">
         <v>81.857142859999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" customHeight="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="3">
         <v>702.92</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="3">
         <v>-631.26760560000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" customHeight="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="3">
         <v>121.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" customHeight="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="3">
         <v>0.71428571399999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="3">
         <v>20.125</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" customHeight="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="3">
         <v>990</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" customHeight="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C74" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="3">
         <v>9000</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" customHeight="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" customHeight="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>42742</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" customHeight="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C78" s="3">
         <v>4.3333333329999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" customHeight="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" customHeight="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" customHeight="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C81" s="3">
         <v>258</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" customHeight="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>159814000000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" customHeight="1">
       <c r="A83">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" customHeight="1">
       <c r="A84">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="1:9" ht="14.25" customHeight="1">
       <c r="A85">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" ht="14.25" customHeight="1">
       <c r="A86">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="1:9" ht="14.25" customHeight="1">
       <c r="A87">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="1:9" ht="14.25" customHeight="1">
       <c r="A88">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="1:9" ht="14.25" customHeight="1">
       <c r="A89">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" ht="14.25" customHeight="1">
       <c r="A90">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.25" customHeight="1">
       <c r="A91">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" ht="14.25" customHeight="1">
       <c r="A92">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="93" spans="1:9" ht="14.25" customHeight="1">
       <c r="A93">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.25" customHeight="1">
       <c r="A94">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.25" customHeight="1">
       <c r="A95">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.25" customHeight="1">
       <c r="A96">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.25" customHeight="1">
       <c r="A97">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+    </row>
+    <row r="98" spans="1:9" ht="14.25" customHeight="1">
       <c r="A98">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.25" customHeight="1">
       <c r="A99">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.25" customHeight="1">
       <c r="A100">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:9" ht="14.25" customHeight="1">
       <c r="A101">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="14.25" customHeight="1">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.25" customHeight="1">
       <c r="A102">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="105" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="107" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:1" ht="14.25" customHeight="1"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Math- Solver</t>
   </si>
@@ -280,15 +280,15 @@
   </si>
   <si>
     <t>Digit Recognition</t>
+  </si>
+  <si>
+    <t>7/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -365,7 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -373,10 +372,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -678,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -709,19 +706,19 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1167,222 +1164,222 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>82.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>1300</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>258.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>1.2857000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>1360</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>649.71400000000006</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>51</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>4981</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>52</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>9798</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>53</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>54</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>5922</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>307.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>57</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>58</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>59</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1544,8 +1541,8 @@
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="7">
-        <v>42742</v>
+      <c r="B77" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -1602,7 +1599,7 @@
       <c r="B82" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>159814000000000</v>
       </c>
     </row>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Björn\Uni\WS17\EDBV\edbv\code\testset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="228" yWindow="576" windowWidth="13116" windowHeight="3396"/>
+    <workbookView xWindow="225" yWindow="570" windowWidth="13110" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Math- Solver</t>
   </si>
@@ -280,12 +285,72 @@
   </si>
   <si>
     <t>Digit Recognition</t>
+  </si>
+  <si>
+    <t>3+3</t>
+  </si>
+  <si>
+    <t>674-2/6*5+33/10-9*1</t>
+  </si>
+  <si>
+    <t>(15+48-96)/(34-6)</t>
+  </si>
+  <si>
+    <t>(33+9)*(14+5+132)</t>
+  </si>
+  <si>
+    <t>((5*3)+9)</t>
+  </si>
+  <si>
+    <t>(32/11)+(2/3)</t>
+  </si>
+  <si>
+    <t>127*(33-91)+2</t>
+  </si>
+  <si>
+    <t>(66+11-0)/(8+190)</t>
+  </si>
+  <si>
+    <t>(8*331)-(4*12)</t>
+  </si>
+  <si>
+    <t>(5+9)*25</t>
+  </si>
+  <si>
+    <t>5+9</t>
+  </si>
+  <si>
+    <t>(((1+1-11)/11)*(-11))</t>
+  </si>
+  <si>
+    <t>((40-31)*8)/300</t>
+  </si>
+  <si>
+    <t>3+(44-8*10)</t>
+  </si>
+  <si>
+    <t>16+(11*5)</t>
+  </si>
+  <si>
+    <t>20-(33/456)*(-8)</t>
+  </si>
+  <si>
+    <t>5+5+5-5*5/5(5*5+1)</t>
+  </si>
+  <si>
+    <t>64-100*3</t>
+  </si>
+  <si>
+    <t>-8*(3/1)+2</t>
+  </si>
+  <si>
+    <t>8-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
@@ -353,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -377,6 +442,8 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -387,14 +454,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,9 +502,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,9 +536,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,9 +588,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,23 +781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -1595,7 +1701,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -1606,116 +1712,236 @@
         <v>159814000000000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B83" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B84" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="9">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="9">
+        <v>666.63333299999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="9">
+        <v>-1.1785714300000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="9">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="9">
+        <v>3.5757575799999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="9">
+        <v>-7364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A91">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.38888888999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="9">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="9">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="9">
+        <v>20.578947400000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="9">
+        <v>14.0384615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A101">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="14.25" customHeight="1">
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="9">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" thickBot="1">
       <c r="A102">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="105" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="107" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:1" ht="14.25" customHeight="1"/>
+      <c r="B102" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -2611,14 +2837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3627,14 +3853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Björn\Uni\WS17\EDBV\edbv\code\testset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="228" yWindow="576" windowWidth="13116" windowHeight="3396"/>
+    <workbookView xWindow="225" yWindow="570" windowWidth="13110" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -348,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -444,14 +449,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +497,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,9 +531,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,9 +583,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -732,23 +776,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -2788,14 +2832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3804,14 +3848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.33203125" customWidth="1"/>
+    <col min="1" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Björn\Uni\WS17\EDBV\edbv\code\testset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktoria\Documents\edbv\code\testset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="570" windowWidth="13110" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="570" windowWidth="13110" windowHeight="3390"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -155,45 +155,12 @@
     <t>22*(9/3)-25</t>
   </si>
   <si>
-    <t>(99+1)/((1+3)*7)-(133*7)=</t>
-  </si>
-  <si>
-    <t>((17*3)-10)*3=</t>
-  </si>
-  <si>
-    <t>(3+77-7)/2=</t>
-  </si>
-  <si>
     <t>((5+8+178)*3)/7</t>
   </si>
   <si>
-    <t>(538/50)*17+631-111=</t>
-  </si>
-  <si>
-    <t>(11*321)/71-681=</t>
-  </si>
-  <si>
-    <t>6*(78+3)/4=</t>
-  </si>
-  <si>
-    <t>96/7-13=</t>
-  </si>
-  <si>
-    <t>11+730/80=</t>
-  </si>
-  <si>
-    <t>(10+23)*4 =</t>
-  </si>
-  <si>
     <t>(88-47+3)*45/2</t>
   </si>
   <si>
-    <t>4*5+8 =</t>
-  </si>
-  <si>
-    <t>(999*9)+9 =</t>
-  </si>
-  <si>
     <t>1/1-(1*1)+1</t>
   </si>
   <si>
@@ -348,12 +315,45 @@
   </si>
   <si>
     <t>-8*(3/1)+2</t>
+  </si>
+  <si>
+    <t>(99+1)/((1+3)*7)-(133*7)</t>
+  </si>
+  <si>
+    <t>((17*3)-10)*3</t>
+  </si>
+  <si>
+    <t>(3+77-7)/2</t>
+  </si>
+  <si>
+    <t>(538/50)*17+631-111</t>
+  </si>
+  <si>
+    <t>(11*321)/71-681</t>
+  </si>
+  <si>
+    <t>6*(78+3)/4</t>
+  </si>
+  <si>
+    <t>96/7-13</t>
+  </si>
+  <si>
+    <t>11+730/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10+23)*4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(999*9)+9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*5+8 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,23 +532,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,23 +567,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,17 +742,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
@@ -811,19 +777,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -1272,7 +1238,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C43" s="8">
         <v>12</v>
@@ -1283,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8">
         <v>41</v>
@@ -1294,7 +1260,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C45" s="8">
         <v>82.5</v>
@@ -1305,7 +1271,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C46" s="8">
         <v>460</v>
@@ -1316,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C47" s="8">
         <v>1300</v>
@@ -1327,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C48" s="8">
         <v>684</v>
@@ -1338,7 +1304,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C49" s="8">
         <v>258.5</v>
@@ -1349,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C50" s="8">
         <v>1.2857000000000001</v>
@@ -1360,7 +1326,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C51" s="8">
         <v>1360</v>
@@ -1371,7 +1337,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C52" s="8">
         <v>260</v>
@@ -1382,7 +1348,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C53" s="8">
         <v>649.71400000000006</v>
@@ -1393,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C54" s="8">
         <v>4981</v>
@@ -1404,7 +1370,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C55" s="8">
         <v>9798</v>
@@ -1415,7 +1381,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C56" s="8">
         <v>333</v>
@@ -1426,7 +1392,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C57" s="8">
         <v>5922</v>
@@ -1437,7 +1403,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C58" s="8">
         <v>10</v>
@@ -1448,7 +1414,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C59" s="8">
         <v>307.5</v>
@@ -1459,7 +1425,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C60" s="8">
         <v>54</v>
@@ -1470,7 +1436,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C61" s="8">
         <v>16</v>
@@ -1481,7 +1447,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8">
         <v>0</v>
@@ -1492,7 +1458,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3">
         <v>-927.42857140000001</v>
@@ -1503,7 +1469,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C64" s="3">
         <v>123</v>
@@ -1514,7 +1480,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C65" s="3">
         <v>36.5</v>
@@ -1525,7 +1491,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" s="3">
         <v>81.857142859999996</v>
@@ -1536,7 +1502,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3">
         <v>702.92</v>
@@ -1547,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3">
         <v>-631.26760560000002</v>
@@ -1558,7 +1524,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3">
         <v>121.5</v>
@@ -1569,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C70" s="3">
         <v>0.71428571399999996</v>
@@ -1580,7 +1546,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C71" s="3">
         <v>20.125</v>
@@ -1591,7 +1557,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3">
         <v>132</v>
@@ -1602,7 +1568,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C73" s="3">
         <v>990</v>
@@ -1613,7 +1579,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C74" s="3">
         <v>28</v>
@@ -1624,7 +1590,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C75" s="3">
         <v>9000</v>
@@ -1635,7 +1601,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1646,7 +1612,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -1657,7 +1623,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C78" s="3">
         <v>4.3333333329999997</v>
@@ -1668,7 +1634,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -1679,7 +1645,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3">
         <v>48</v>
@@ -1690,7 +1656,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C81" s="3">
         <v>258</v>
@@ -1701,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C82" s="7">
         <v>159814000000000</v>
@@ -1712,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C83" s="6">
         <v>6</v>
@@ -1723,7 +1689,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C84" s="6">
         <v>-22</v>
@@ -1734,7 +1700,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C85" s="6">
         <v>666.63333299999999</v>
@@ -1745,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C86" s="6">
         <v>-1.1785714300000001</v>
@@ -1756,7 +1722,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C87" s="6">
         <v>6342</v>
@@ -1767,7 +1733,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C88" s="6">
         <v>24</v>
@@ -1778,7 +1744,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C89" s="6">
         <v>3.5757575799999999</v>
@@ -1789,7 +1755,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C90" s="6">
         <v>-7364</v>
@@ -1800,7 +1766,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C91" s="6">
         <v>0.38888888999999999</v>
@@ -1811,7 +1777,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C92" s="6">
         <v>2600</v>
@@ -1822,7 +1788,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C93" s="6">
         <v>350</v>
@@ -1833,7 +1799,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C94" s="6">
         <v>14</v>
@@ -1844,7 +1810,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C95" s="6">
         <v>9</v>
@@ -1855,7 +1821,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C96" s="6">
         <v>0.24</v>
@@ -1866,7 +1832,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C97" s="6">
         <v>-33</v>
@@ -1877,7 +1843,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C98" s="6">
         <v>71</v>
@@ -1888,7 +1854,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C99" s="6">
         <v>20.578947400000001</v>
@@ -1899,7 +1865,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C100" s="6">
         <v>14.0384615</v>
@@ -1910,7 +1876,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C101" s="6">
         <v>-236</v>
@@ -1921,7 +1887,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
@@ -2832,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3848,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -338,9 +338,6 @@
     <t>20-(33/456)*(-8)</t>
   </si>
   <si>
-    <t>5+5+5-5*5/5(5*5+1)</t>
-  </si>
-  <si>
     <t>64-100*3</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>-8*(3/1)+2</t>
+  </si>
+  <si>
+    <t>6-(1*9/7)+2</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -1723,7 +1723,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="6">
         <v>-22</v>
@@ -1861,7 +1861,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1">
+    <row r="97" spans="1:4" ht="14.25" customHeight="1">
       <c r="A97">
         <v>94</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1">
       <c r="A98">
         <v>95</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1">
       <c r="A99">
         <v>96</v>
       </c>
@@ -1894,49 +1894,50 @@
         <v>20.578947400000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C100" s="6">
-        <v>14.0384615</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1">
+        <v>6.7142860000000004</v>
+      </c>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" ht="14.25" customHeight="1">
       <c r="A101">
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" s="6">
         <v>-236</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1">
       <c r="A102">
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="103" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>

--- a/code/testset/image_numbers.xlsx
+++ b/code/testset/image_numbers.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Björn\Uni\WS17\EDBV\edbv\code\testset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="225" yWindow="570" windowWidth="13110" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="576" windowWidth="13116" windowHeight="3396"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -155,45 +150,12 @@
     <t>22*(9/3)-25</t>
   </si>
   <si>
-    <t>(99+1)/((1+3)*7)-(133*7)=</t>
-  </si>
-  <si>
-    <t>((17*3)-10)*3=</t>
-  </si>
-  <si>
-    <t>(3+77-7)/2=</t>
-  </si>
-  <si>
     <t>((5+8+178)*3)/7</t>
   </si>
   <si>
-    <t>(538/50)*17+631-111=</t>
-  </si>
-  <si>
-    <t>(11*321)/71-681=</t>
-  </si>
-  <si>
-    <t>6*(78+3)/4=</t>
-  </si>
-  <si>
-    <t>96/7-13=</t>
-  </si>
-  <si>
-    <t>11+730/80=</t>
-  </si>
-  <si>
-    <t>(10+23)*4 =</t>
-  </si>
-  <si>
     <t>(88-47+3)*45/2</t>
   </si>
   <si>
-    <t>4*5+8 =</t>
-  </si>
-  <si>
-    <t>(999*9)+9 =</t>
-  </si>
-  <si>
     <t>1/1-(1*1)+1</t>
   </si>
   <si>
@@ -348,12 +310,45 @@
   </si>
   <si>
     <t>6-(1*9/7)+2</t>
+  </si>
+  <si>
+    <t>(99+1)/((1+3)*7)-(133*7)</t>
+  </si>
+  <si>
+    <t>((17*3)-10)*3</t>
+  </si>
+  <si>
+    <t>(3+77-7)/2</t>
+  </si>
+  <si>
+    <t>(538/50)*17+631-111</t>
+  </si>
+  <si>
+    <t>(11*321)/71-681</t>
+  </si>
+  <si>
+    <t>6*(78+3)/4</t>
+  </si>
+  <si>
+    <t>96/7-13</t>
+  </si>
+  <si>
+    <t>11+730/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10+23)*4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*5+8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(999*9)+9 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -457,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,9 +492,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,27 +526,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,23 +735,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -811,19 +770,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
@@ -1272,7 +1231,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C43" s="8">
         <v>12</v>
@@ -1283,7 +1242,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8">
         <v>41</v>
@@ -1294,7 +1253,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C45" s="8">
         <v>82.5</v>
@@ -1305,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C46" s="8">
         <v>460</v>
@@ -1316,7 +1275,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C47" s="8">
         <v>1300</v>
@@ -1327,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C48" s="8">
         <v>684</v>
@@ -1338,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C49" s="8">
         <v>258.5</v>
@@ -1349,7 +1308,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C50" s="8">
         <v>1.2857000000000001</v>
@@ -1360,7 +1319,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C51" s="8">
         <v>1360</v>
@@ -1371,7 +1330,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C52" s="8">
         <v>260</v>
@@ -1382,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C53" s="8">
         <v>649.71400000000006</v>
@@ -1393,7 +1352,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C54" s="8">
         <v>4981</v>
@@ -1404,7 +1363,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C55" s="8">
         <v>9798</v>
@@ -1415,7 +1374,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C56" s="8">
         <v>333</v>
@@ -1426,7 +1385,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C57" s="8">
         <v>5922</v>
@@ -1437,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C58" s="8">
         <v>10</v>
@@ -1448,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C59" s="8">
         <v>307.5</v>
@@ -1459,7 +1418,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C60" s="8">
         <v>54</v>
@@ -1470,7 +1429,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C61" s="8">
         <v>16</v>
@@ -1481,7 +1440,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8">
         <v>0</v>
@@ -1491,8 +1450,8 @@
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>44</v>
+      <c r="B63" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C63" s="3">
         <v>-927.42857140000001</v>
@@ -1502,8 +1461,8 @@
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>45</v>
+      <c r="B64" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C64" s="3">
         <v>123</v>
@@ -1513,8 +1472,8 @@
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>46</v>
+      <c r="B65" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C65" s="3">
         <v>36.5</v>
@@ -1525,7 +1484,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" s="3">
         <v>81.857142859999996</v>
@@ -1535,8 +1494,8 @@
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>48</v>
+      <c r="B67" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C67" s="3">
         <v>702.92</v>
@@ -1546,8 +1505,8 @@
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>49</v>
+      <c r="B68" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C68" s="3">
         <v>-631.26760560000002</v>
@@ -1557,8 +1516,8 @@
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>50</v>
+      <c r="B69" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C69" s="3">
         <v>121.5</v>
@@ -1568,8 +1527,8 @@
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>51</v>
+      <c r="B70" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C70" s="3">
         <v>0.71428571399999996</v>
@@ -1579,8 +1538,8 @@
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>52</v>
+      <c r="B71" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C71" s="3">
         <v>20.125</v>
@@ -1590,8 +1549,8 @@
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>53</v>
+      <c r="B72" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C72" s="3">
         <v>132</v>
@@ -1602,7 +1561,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C73" s="3">
         <v>990</v>
@@ -1612,8 +1571,8 @@
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>55</v>
+      <c r="B74" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C74" s="3">
         <v>28</v>
@@ -1623,8 +1582,8 @@
       <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>56</v>
+      <c r="B75" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C75" s="3">
         <v>9000</v>
@@ -1635,7 +1594,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -1646,7 +1605,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
@@ -1657,7 +1616,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C78" s="3">
         <v>4.3333333329999997</v>
@@ -1668,7 +1627,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -1679,7 +1638,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3">
         <v>48</v>
@@ -1690,7 +1649,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C81" s="3">
         <v>258</v>
@@ -1701,7 +1660,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C82" s="7">
         <v>159814000000000</v>
@@ -1712,7 +1671,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C83" s="6">
         <v>6</v>
@@ -1723,7 +1682,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C84" s="6">
         <v>-22</v>
@@ -1734,7 +1693,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C85" s="6">
         <v>666.63333299999999</v>
@@ -1745,7 +1704,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C86" s="6">
         <v>-1.1785714300000001</v>
@@ -1756,7 +1715,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C87" s="6">
         <v>6342</v>
@@ -1767,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C88" s="6">
         <v>24</v>
@@ -1778,7 +1737,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C89" s="6">
         <v>3.5757575799999999</v>
@@ -1789,7 +1748,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C90" s="6">
         <v>-7364</v>
@@ -1800,7 +1759,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C91" s="6">
         <v>0.38888888999999999</v>
@@ -1811,7 +1770,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C92" s="6">
         <v>2600</v>
@@ -1822,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C93" s="6">
         <v>350</v>
@@ -1833,7 +1792,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C94" s="6">
         <v>14</v>
@@ -1844,7 +1803,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C95" s="6">
         <v>9</v>
@@ -1855,7 +1814,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C96" s="6">
         <v>0.24</v>
@@ -1866,7 +1825,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C97" s="6">
         <v>-33</v>
@@ -1877,7 +1836,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C98" s="6">
         <v>71</v>
@@ -1888,7 +1847,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C99" s="6">
         <v>20.578947400000001</v>
@@ -1899,7 +1858,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C100" s="6">
         <v>6.7142860000000004</v>
@@ -1911,7 +1870,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C101" s="6">
         <v>-236</v>
@@ -1922,7 +1881,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
@@ -2833,14 +2792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -3849,14 +3808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="9.28515625" customWidth="1"/>
+    <col min="1" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
